--- a/doc/Register_commands.xlsx
+++ b/doc/Register_commands.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATHENA_X-IFU\Documents\Noemie2020\Documents_projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ATHENA_X-IFU\Documents\Noemie2020\solution_commande\ras-a75-fw\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="193">
   <si>
     <t>Address</t>
   </si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t xml:space="preserve">Les autres commandes doivent être saisies mais leurs valeurs ne seront pas prises en compte </t>
+  </si>
+  <si>
+    <t>Version : ras-a75-fw 1.3.0</t>
   </si>
 </sst>
 </file>
@@ -633,7 +636,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,6 +658,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +775,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -851,39 +866,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -898,12 +880,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -936,6 +912,63 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2131,8 +2164,8 @@
   <dimension ref="A1:AX150"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AX62" sqref="AX62"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y56" sqref="Y56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.42578125" defaultRowHeight="13.9" customHeight="1"/>
@@ -2157,19 +2190,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A1" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
       <c r="L1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2188,40 +2221,40 @@
       <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="R1" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
-      <c r="AG1" s="33"/>
-      <c r="AH1" s="33"/>
-      <c r="AI1" s="33"/>
-      <c r="AJ1" s="33"/>
-      <c r="AK1" s="33"/>
-      <c r="AL1" s="33"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
-      <c r="AW1" s="33"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="51"/>
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
       <c r="AX1" s="2" t="s">
         <v>8</v>
       </c>
@@ -2365,110 +2398,110 @@
       <c r="AX2" s="4"/>
     </row>
     <row r="3" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A3" s="34">
-        <v>0</v>
-      </c>
-      <c r="B3" s="34">
-        <v>0</v>
-      </c>
-      <c r="C3" s="34">
-        <v>0</v>
-      </c>
-      <c r="D3" s="34">
-        <v>0</v>
-      </c>
-      <c r="E3" s="34">
-        <v>0</v>
-      </c>
-      <c r="F3" s="34">
-        <v>0</v>
-      </c>
-      <c r="G3" s="34">
-        <v>0</v>
-      </c>
-      <c r="H3" s="34">
-        <v>0</v>
-      </c>
-      <c r="I3" s="36" t="s">
+      <c r="A3" s="48">
+        <v>0</v>
+      </c>
+      <c r="B3" s="48">
+        <v>0</v>
+      </c>
+      <c r="C3" s="48">
+        <v>0</v>
+      </c>
+      <c r="D3" s="48">
+        <v>0</v>
+      </c>
+      <c r="E3" s="48">
+        <v>0</v>
+      </c>
+      <c r="F3" s="48">
+        <v>0</v>
+      </c>
+      <c r="G3" s="48">
+        <v>0</v>
+      </c>
+      <c r="H3" s="48">
+        <v>0</v>
+      </c>
+      <c r="I3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="34">
-        <v>0</v>
-      </c>
-      <c r="M3" s="36" t="s">
+      <c r="L3" s="48">
+        <v>0</v>
+      </c>
+      <c r="M3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="47" t="s">
+      <c r="N3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="41" t="s">
+      <c r="O3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="42">
+      <c r="P3" s="60">
         <v>1</v>
       </c>
-      <c r="Q3" s="43" t="s">
+      <c r="Q3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="44"/>
-      <c r="AS3" s="44"/>
-      <c r="AT3" s="44"/>
-      <c r="AU3" s="44"/>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="41" t="s">
+      <c r="R3" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="62"/>
+      <c r="AU3" s="62"/>
+      <c r="AV3" s="62"/>
+      <c r="AW3" s="62"/>
+      <c r="AX3" s="59" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="48"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="53"/>
       <c r="O4" s="10" t="s">
         <v>17</v>
       </c>
@@ -2517,20 +2550,20 @@
       </c>
     </row>
     <row r="5" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="48"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="53"/>
       <c r="O5" s="10" t="s">
         <v>19</v>
       </c>
@@ -2579,20 +2612,20 @@
       </c>
     </row>
     <row r="6" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="48"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="53"/>
       <c r="O6" s="10" t="s">
         <v>20</v>
       </c>
@@ -2641,20 +2674,20 @@
       </c>
     </row>
     <row r="7" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="48"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="53"/>
       <c r="O7" s="10" t="s">
         <v>21</v>
       </c>
@@ -2703,20 +2736,20 @@
       </c>
     </row>
     <row r="8" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="48"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="10" t="s">
         <v>23</v>
       </c>
@@ -2765,20 +2798,20 @@
       </c>
     </row>
     <row r="9" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="48"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="10" t="s">
         <v>25</v>
       </c>
@@ -2827,20 +2860,20 @@
       </c>
     </row>
     <row r="10" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="48"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="53"/>
       <c r="O10" s="10" t="s">
         <v>27</v>
       </c>
@@ -2889,20 +2922,20 @@
       </c>
     </row>
     <row r="11" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="48"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="10" t="s">
         <v>29</v>
       </c>
@@ -2951,20 +2984,20 @@
       </c>
     </row>
     <row r="12" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="48"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="53"/>
       <c r="O12" s="10" t="s">
         <v>31</v>
       </c>
@@ -3013,20 +3046,20 @@
       </c>
     </row>
     <row r="13" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="48"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="53"/>
       <c r="O13" s="10" t="s">
         <v>32</v>
       </c>
@@ -3075,20 +3108,20 @@
       </c>
     </row>
     <row r="14" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="48"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="53"/>
       <c r="O14" s="10" t="s">
         <v>33</v>
       </c>
@@ -3137,88 +3170,88 @@
       </c>
     </row>
     <row r="15" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="45" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="P15" s="42">
+      <c r="P15" s="31">
         <v>4</v>
       </c>
-      <c r="Q15" s="43" t="s">
+      <c r="Q15" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE15" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF15" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG15" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH15" s="44"/>
-      <c r="AI15" s="44"/>
-      <c r="AJ15" s="44"/>
-      <c r="AK15" s="44"/>
-      <c r="AL15" s="46"/>
-      <c r="AM15" s="44"/>
-      <c r="AN15" s="44"/>
-      <c r="AO15" s="44"/>
-      <c r="AP15" s="44"/>
-      <c r="AQ15" s="44"/>
-      <c r="AR15" s="44"/>
-      <c r="AS15" s="44"/>
-      <c r="AT15" s="44"/>
-      <c r="AU15" s="44"/>
-      <c r="AV15" s="44"/>
-      <c r="AW15" s="44"/>
-      <c r="AX15" s="41" t="s">
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="33"/>
+      <c r="AD15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG15" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH15" s="33"/>
+      <c r="AI15" s="33"/>
+      <c r="AJ15" s="33"/>
+      <c r="AK15" s="33"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="33"/>
+      <c r="AN15" s="33"/>
+      <c r="AO15" s="33"/>
+      <c r="AP15" s="33"/>
+      <c r="AQ15" s="33"/>
+      <c r="AR15" s="33"/>
+      <c r="AS15" s="33"/>
+      <c r="AT15" s="33"/>
+      <c r="AU15" s="33"/>
+      <c r="AV15" s="33"/>
+      <c r="AW15" s="33"/>
+      <c r="AX15" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="48"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="7" t="s">
         <v>36</v>
       </c>
@@ -3297,44 +3330,44 @@
       </c>
     </row>
     <row r="17" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A17" s="34">
-        <v>0</v>
-      </c>
-      <c r="B17" s="34">
-        <v>0</v>
-      </c>
-      <c r="C17" s="34">
-        <v>0</v>
-      </c>
-      <c r="D17" s="34">
-        <v>0</v>
-      </c>
-      <c r="E17" s="34">
-        <v>0</v>
-      </c>
-      <c r="F17" s="34">
-        <v>0</v>
-      </c>
-      <c r="G17" s="34">
-        <v>0</v>
-      </c>
-      <c r="H17" s="34">
+      <c r="A17" s="48">
+        <v>0</v>
+      </c>
+      <c r="B17" s="48">
+        <v>0</v>
+      </c>
+      <c r="C17" s="48">
+        <v>0</v>
+      </c>
+      <c r="D17" s="48">
+        <v>0</v>
+      </c>
+      <c r="E17" s="48">
+        <v>0</v>
+      </c>
+      <c r="F17" s="48">
+        <v>0</v>
+      </c>
+      <c r="G17" s="48">
+        <v>0</v>
+      </c>
+      <c r="H17" s="48">
         <v>1</v>
       </c>
-      <c r="I17" s="36" t="s">
+      <c r="I17" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J17" s="36" t="s">
+      <c r="J17" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K17" s="36" t="s">
+      <c r="K17" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="34">
+      <c r="L17" s="48">
         <v>1</v>
       </c>
-      <c r="M17" s="35"/>
-      <c r="N17" s="47" t="s">
+      <c r="M17" s="47"/>
+      <c r="N17" s="52" t="s">
         <v>38</v>
       </c>
       <c r="O17" s="10" t="s">
@@ -3387,92 +3420,92 @@
       </c>
     </row>
     <row r="18" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="45" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="P18" s="42">
+      <c r="P18" s="31">
         <v>6</v>
       </c>
-      <c r="Q18" s="43" t="s">
+      <c r="Q18" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="U18" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="V18" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="W18" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="X18" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y18" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="46"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="44"/>
-      <c r="AI18" s="44"/>
-      <c r="AJ18" s="44"/>
-      <c r="AK18" s="44"/>
-      <c r="AL18" s="44"/>
-      <c r="AM18" s="44"/>
-      <c r="AN18" s="44"/>
-      <c r="AO18" s="44"/>
-      <c r="AP18" s="44"/>
-      <c r="AQ18" s="44"/>
-      <c r="AR18" s="44"/>
-      <c r="AS18" s="44"/>
-      <c r="AT18" s="44"/>
-      <c r="AU18" s="44"/>
-      <c r="AV18" s="44"/>
-      <c r="AW18" s="44"/>
-      <c r="AX18" s="41" t="s">
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="U18" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="V18" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="W18" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X18" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y18" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="33"/>
+      <c r="AI18" s="33"/>
+      <c r="AJ18" s="33"/>
+      <c r="AK18" s="33"/>
+      <c r="AL18" s="33"/>
+      <c r="AM18" s="33"/>
+      <c r="AN18" s="33"/>
+      <c r="AO18" s="33"/>
+      <c r="AP18" s="33"/>
+      <c r="AQ18" s="33"/>
+      <c r="AR18" s="33"/>
+      <c r="AS18" s="33"/>
+      <c r="AT18" s="33"/>
+      <c r="AU18" s="33"/>
+      <c r="AV18" s="33"/>
+      <c r="AW18" s="33"/>
+      <c r="AX18" s="30" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="48"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="53"/>
       <c r="O19" s="10" t="s">
         <v>40</v>
       </c>
@@ -3535,20 +3568,20 @@
       </c>
     </row>
     <row r="20" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="48"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="53"/>
       <c r="O20" s="10" t="s">
         <v>33</v>
       </c>
@@ -3599,90 +3632,90 @@
       </c>
     </row>
     <row r="21" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="41" t="s">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="P21" s="42">
+      <c r="P21" s="31">
         <v>14</v>
       </c>
-      <c r="Q21" s="43" t="s">
+      <c r="Q21" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="44"/>
-      <c r="AH21" s="44"/>
-      <c r="AI21" s="44"/>
-      <c r="AJ21" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK21" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL21" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM21" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN21" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO21" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP21" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ21" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR21" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS21" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT21" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU21" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV21" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW21" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX21" s="41" t="s">
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="33"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="33"/>
+      <c r="AI21" s="33"/>
+      <c r="AJ21" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK21" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL21" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM21" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN21" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO21" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP21" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ21" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR21" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS21" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT21" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU21" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV21" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW21" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX21" s="30" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3723,7 +3756,7 @@
       <c r="L22" s="5">
         <v>2</v>
       </c>
-      <c r="M22" s="35"/>
+      <c r="M22" s="47"/>
       <c r="N22" s="7" t="s">
         <v>43</v>
       </c>
@@ -3837,44 +3870,44 @@
       </c>
     </row>
     <row r="23" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A23" s="34">
-        <v>0</v>
-      </c>
-      <c r="B23" s="34">
-        <v>0</v>
-      </c>
-      <c r="C23" s="34">
-        <v>0</v>
-      </c>
-      <c r="D23" s="34">
-        <v>0</v>
-      </c>
-      <c r="E23" s="34">
-        <v>0</v>
-      </c>
-      <c r="F23" s="34">
-        <v>0</v>
-      </c>
-      <c r="G23" s="34">
+      <c r="A23" s="48">
+        <v>0</v>
+      </c>
+      <c r="B23" s="48">
+        <v>0</v>
+      </c>
+      <c r="C23" s="48">
+        <v>0</v>
+      </c>
+      <c r="D23" s="48">
+        <v>0</v>
+      </c>
+      <c r="E23" s="48">
+        <v>0</v>
+      </c>
+      <c r="F23" s="48">
+        <v>0</v>
+      </c>
+      <c r="G23" s="48">
         <v>1</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H23" s="48">
         <v>1</v>
       </c>
-      <c r="I23" s="36" t="s">
+      <c r="I23" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="36" t="s">
+      <c r="J23" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="K23" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="L23" s="34">
+      <c r="L23" s="48">
         <v>3</v>
       </c>
-      <c r="M23" s="35"/>
-      <c r="N23" s="37" t="s">
+      <c r="M23" s="47"/>
+      <c r="N23" s="49" t="s">
         <v>47</v>
       </c>
       <c r="O23" s="7" t="s">
@@ -3971,20 +4004,20 @@
       </c>
     </row>
     <row r="24" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
       <c r="O24" s="10" t="s">
         <v>44</v>
       </c>
@@ -4083,328 +4116,328 @@
       <c r="L25" s="5">
         <v>4</v>
       </c>
-      <c r="M25" s="34">
-        <v>0</v>
-      </c>
-      <c r="N25" s="41" t="s">
+      <c r="M25" s="48">
+        <v>0</v>
+      </c>
+      <c r="N25" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="O25" s="45" t="s">
+      <c r="O25" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P25" s="42">
+      <c r="P25" s="31">
         <v>32</v>
       </c>
-      <c r="Q25" s="43" t="s">
+      <c r="Q25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="S25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="T25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="U25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="V25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="W25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="X25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW25" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX25" s="41" t="s">
+      <c r="R25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="S25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="T25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="U25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="V25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="W25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX25" s="30" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A26" s="34">
-        <v>0</v>
-      </c>
-      <c r="B26" s="34">
-        <v>0</v>
-      </c>
-      <c r="C26" s="34">
-        <v>0</v>
-      </c>
-      <c r="D26" s="34">
-        <v>0</v>
-      </c>
-      <c r="E26" s="34">
-        <v>0</v>
-      </c>
-      <c r="F26" s="34">
+      <c r="A26" s="48">
+        <v>0</v>
+      </c>
+      <c r="B26" s="48">
+        <v>0</v>
+      </c>
+      <c r="C26" s="48">
+        <v>0</v>
+      </c>
+      <c r="D26" s="48">
+        <v>0</v>
+      </c>
+      <c r="E26" s="48">
+        <v>0</v>
+      </c>
+      <c r="F26" s="48">
         <v>1</v>
       </c>
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
-      <c r="H26" s="34">
+      <c r="G26" s="48">
+        <v>0</v>
+      </c>
+      <c r="H26" s="48">
         <v>1</v>
       </c>
-      <c r="I26" s="36" t="s">
+      <c r="I26" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="36" t="s">
+      <c r="J26" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="K26" s="36" t="s">
+      <c r="K26" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="L26" s="34">
+      <c r="L26" s="48">
         <v>5</v>
       </c>
-      <c r="M26" s="35"/>
-      <c r="N26" s="47" t="s">
+      <c r="M26" s="47"/>
+      <c r="N26" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="O26" s="41" t="s">
+      <c r="O26" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="P26" s="42">
+      <c r="P26" s="31">
         <v>24</v>
       </c>
-      <c r="Q26" s="43" t="s">
+      <c r="Q26" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="S26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="T26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="U26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="V26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="W26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="X26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO26" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP26" s="44"/>
-      <c r="AQ26" s="44"/>
-      <c r="AR26" s="44"/>
-      <c r="AS26" s="44"/>
-      <c r="AT26" s="44"/>
-      <c r="AU26" s="44"/>
-      <c r="AV26" s="44"/>
-      <c r="AW26" s="44"/>
-      <c r="AX26" s="41" t="s">
+      <c r="R26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="S26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="T26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="U26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="V26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="W26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO26" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP26" s="33"/>
+      <c r="AQ26" s="33"/>
+      <c r="AR26" s="33"/>
+      <c r="AS26" s="33"/>
+      <c r="AT26" s="33"/>
+      <c r="AU26" s="33"/>
+      <c r="AV26" s="33"/>
+      <c r="AW26" s="33"/>
+      <c r="AX26" s="30" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:50" ht="14.65" customHeight="1">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="45" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P27" s="42">
+      <c r="P27" s="31">
         <v>8</v>
       </c>
-      <c r="Q27" s="43" t="s">
+      <c r="Q27" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="46"/>
-      <c r="AA27" s="46"/>
-      <c r="AB27" s="46"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="46"/>
-      <c r="AE27" s="46"/>
-      <c r="AF27" s="46"/>
-      <c r="AG27" s="46"/>
-      <c r="AH27" s="44"/>
-      <c r="AI27" s="44"/>
-      <c r="AJ27" s="44"/>
-      <c r="AK27" s="44"/>
-      <c r="AL27" s="44"/>
-      <c r="AM27" s="44"/>
-      <c r="AN27" s="44"/>
-      <c r="AO27" s="44"/>
-      <c r="AP27" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ27" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR27" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS27" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT27" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU27" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV27" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW27" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX27" s="41" t="s">
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+      <c r="Z27" s="35"/>
+      <c r="AA27" s="35"/>
+      <c r="AB27" s="35"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="35"/>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="35"/>
+      <c r="AH27" s="33"/>
+      <c r="AI27" s="33"/>
+      <c r="AJ27" s="33"/>
+      <c r="AK27" s="33"/>
+      <c r="AL27" s="33"/>
+      <c r="AM27" s="33"/>
+      <c r="AN27" s="33"/>
+      <c r="AO27" s="33"/>
+      <c r="AP27" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ27" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR27" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS27" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT27" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU27" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV27" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW27" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX27" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4445,118 +4478,118 @@
       <c r="L28" s="5">
         <v>6</v>
       </c>
-      <c r="M28" s="30">
+      <c r="M28" s="54">
         <v>1</v>
       </c>
-      <c r="N28" s="41" t="s">
+      <c r="N28" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="O28" s="45" t="s">
+      <c r="O28" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P28" s="44">
+      <c r="P28" s="33">
         <v>32</v>
       </c>
-      <c r="Q28" s="43" t="s">
+      <c r="Q28" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="S28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="T28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="U28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="V28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="W28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="X28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW28" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX28" s="41" t="s">
+      <c r="R28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="S28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="T28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="U28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="V28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="W28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW28" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX28" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4597,68 +4630,68 @@
       <c r="L29" s="5">
         <v>7</v>
       </c>
-      <c r="M29" s="31"/>
-      <c r="N29" s="41" t="s">
+      <c r="M29" s="55"/>
+      <c r="N29" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="O29" s="45" t="s">
+      <c r="O29" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P29" s="44">
+      <c r="P29" s="33">
         <v>8</v>
       </c>
-      <c r="Q29" s="43" t="s">
+      <c r="Q29" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="44"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="44"/>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="44"/>
-      <c r="AI29" s="44"/>
-      <c r="AJ29" s="44"/>
-      <c r="AK29" s="44"/>
-      <c r="AL29" s="44"/>
-      <c r="AM29" s="44"/>
-      <c r="AN29" s="44"/>
-      <c r="AO29" s="44"/>
-      <c r="AP29" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ29" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR29" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS29" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT29" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU29" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV29" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW29" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX29" s="41" t="s">
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="33"/>
+      <c r="AC29" s="33"/>
+      <c r="AD29" s="33"/>
+      <c r="AE29" s="33"/>
+      <c r="AF29" s="33"/>
+      <c r="AG29" s="33"/>
+      <c r="AH29" s="33"/>
+      <c r="AI29" s="33"/>
+      <c r="AJ29" s="33"/>
+      <c r="AK29" s="33"/>
+      <c r="AL29" s="33"/>
+      <c r="AM29" s="33"/>
+      <c r="AN29" s="33"/>
+      <c r="AO29" s="33"/>
+      <c r="AP29" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ29" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR29" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS29" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT29" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU29" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV29" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW29" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX29" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4699,118 +4732,118 @@
       <c r="L30" s="5">
         <v>8</v>
       </c>
-      <c r="M30" s="30">
+      <c r="M30" s="54">
         <v>2</v>
       </c>
-      <c r="N30" s="41" t="s">
+      <c r="N30" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="O30" s="45" t="s">
+      <c r="O30" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P30" s="44">
+      <c r="P30" s="33">
         <v>32</v>
       </c>
-      <c r="Q30" s="43" t="s">
+      <c r="Q30" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="S30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="T30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="U30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="V30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="W30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="X30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX30" s="41" t="s">
+      <c r="R30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="S30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="T30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="U30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="V30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="W30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW30" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX30" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4851,68 +4884,68 @@
       <c r="L31" s="5">
         <v>9</v>
       </c>
-      <c r="M31" s="31"/>
-      <c r="N31" s="41" t="s">
+      <c r="M31" s="55"/>
+      <c r="N31" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="O31" s="45" t="s">
+      <c r="O31" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P31" s="44">
+      <c r="P31" s="33">
         <v>8</v>
       </c>
-      <c r="Q31" s="43" t="s">
+      <c r="Q31" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="44"/>
-      <c r="AF31" s="44"/>
-      <c r="AG31" s="44"/>
-      <c r="AH31" s="44"/>
-      <c r="AI31" s="44"/>
-      <c r="AJ31" s="44"/>
-      <c r="AK31" s="44"/>
-      <c r="AL31" s="44"/>
-      <c r="AM31" s="44"/>
-      <c r="AN31" s="44"/>
-      <c r="AO31" s="44"/>
-      <c r="AP31" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ31" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR31" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS31" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT31" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU31" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV31" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW31" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX31" s="41" t="s">
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="33"/>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="33"/>
+      <c r="AF31" s="33"/>
+      <c r="AG31" s="33"/>
+      <c r="AH31" s="33"/>
+      <c r="AI31" s="33"/>
+      <c r="AJ31" s="33"/>
+      <c r="AK31" s="33"/>
+      <c r="AL31" s="33"/>
+      <c r="AM31" s="33"/>
+      <c r="AN31" s="33"/>
+      <c r="AO31" s="33"/>
+      <c r="AP31" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ31" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR31" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS31" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT31" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU31" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV31" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW31" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX31" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4953,118 +4986,118 @@
       <c r="L32" s="5">
         <v>10</v>
       </c>
-      <c r="M32" s="30">
+      <c r="M32" s="54">
         <v>3</v>
       </c>
-      <c r="N32" s="41" t="s">
+      <c r="N32" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="O32" s="45" t="s">
+      <c r="O32" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P32" s="44">
+      <c r="P32" s="33">
         <v>32</v>
       </c>
-      <c r="Q32" s="43" t="s">
+      <c r="Q32" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="S32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="T32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="U32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="V32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="W32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="X32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW32" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX32" s="41" t="s">
+      <c r="R32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="S32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="T32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="U32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="V32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="W32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW32" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX32" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5105,68 +5138,68 @@
       <c r="L33" s="5">
         <v>11</v>
       </c>
-      <c r="M33" s="31"/>
-      <c r="N33" s="41" t="s">
+      <c r="M33" s="55"/>
+      <c r="N33" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="O33" s="45" t="s">
+      <c r="O33" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P33" s="44">
+      <c r="P33" s="33">
         <v>8</v>
       </c>
-      <c r="Q33" s="43" t="s">
+      <c r="Q33" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="44"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="44"/>
-      <c r="AE33" s="44"/>
-      <c r="AF33" s="44"/>
-      <c r="AG33" s="44"/>
-      <c r="AH33" s="44"/>
-      <c r="AI33" s="44"/>
-      <c r="AJ33" s="44"/>
-      <c r="AK33" s="44"/>
-      <c r="AL33" s="44"/>
-      <c r="AM33" s="44"/>
-      <c r="AN33" s="44"/>
-      <c r="AO33" s="44"/>
-      <c r="AP33" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ33" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR33" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS33" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT33" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU33" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV33" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW33" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX33" s="41" t="s">
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="33"/>
+      <c r="AD33" s="33"/>
+      <c r="AE33" s="33"/>
+      <c r="AF33" s="33"/>
+      <c r="AG33" s="33"/>
+      <c r="AH33" s="33"/>
+      <c r="AI33" s="33"/>
+      <c r="AJ33" s="33"/>
+      <c r="AK33" s="33"/>
+      <c r="AL33" s="33"/>
+      <c r="AM33" s="33"/>
+      <c r="AN33" s="33"/>
+      <c r="AO33" s="33"/>
+      <c r="AP33" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ33" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR33" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS33" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT33" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU33" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV33" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW33" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX33" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5207,118 +5240,118 @@
       <c r="L34" s="5">
         <v>12</v>
       </c>
-      <c r="M34" s="30">
+      <c r="M34" s="54">
         <v>4</v>
       </c>
-      <c r="N34" s="41" t="s">
+      <c r="N34" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="O34" s="45" t="s">
+      <c r="O34" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P34" s="44">
+      <c r="P34" s="33">
         <v>32</v>
       </c>
-      <c r="Q34" s="43" t="s">
+      <c r="Q34" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="S34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="T34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="U34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="V34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="W34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="X34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW34" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX34" s="41" t="s">
+      <c r="R34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="S34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="T34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="U34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="V34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="W34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW34" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX34" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5359,68 +5392,68 @@
       <c r="L35" s="5">
         <v>13</v>
       </c>
-      <c r="M35" s="31"/>
-      <c r="N35" s="41" t="s">
+      <c r="M35" s="55"/>
+      <c r="N35" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="O35" s="45" t="s">
+      <c r="O35" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P35" s="44">
+      <c r="P35" s="33">
         <v>8</v>
       </c>
-      <c r="Q35" s="43" t="s">
+      <c r="Q35" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R35" s="44"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="44"/>
-      <c r="V35" s="44"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="44"/>
-      <c r="Z35" s="44"/>
-      <c r="AA35" s="44"/>
-      <c r="AB35" s="44"/>
-      <c r="AC35" s="44"/>
-      <c r="AD35" s="44"/>
-      <c r="AE35" s="44"/>
-      <c r="AF35" s="44"/>
-      <c r="AG35" s="44"/>
-      <c r="AH35" s="44"/>
-      <c r="AI35" s="44"/>
-      <c r="AJ35" s="44"/>
-      <c r="AK35" s="44"/>
-      <c r="AL35" s="44"/>
-      <c r="AM35" s="44"/>
-      <c r="AN35" s="44"/>
-      <c r="AO35" s="44"/>
-      <c r="AP35" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ35" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR35" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS35" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT35" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU35" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV35" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW35" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX35" s="41" t="s">
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="33"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="33"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="33"/>
+      <c r="AH35" s="33"/>
+      <c r="AI35" s="33"/>
+      <c r="AJ35" s="33"/>
+      <c r="AK35" s="33"/>
+      <c r="AL35" s="33"/>
+      <c r="AM35" s="33"/>
+      <c r="AN35" s="33"/>
+      <c r="AO35" s="33"/>
+      <c r="AP35" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ35" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR35" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS35" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT35" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU35" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV35" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW35" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX35" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5461,118 +5494,118 @@
       <c r="L36" s="5">
         <v>14</v>
       </c>
-      <c r="M36" s="30">
+      <c r="M36" s="54">
         <v>5</v>
       </c>
-      <c r="N36" s="41" t="s">
+      <c r="N36" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="O36" s="45" t="s">
+      <c r="O36" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P36" s="44">
+      <c r="P36" s="33">
         <v>32</v>
       </c>
-      <c r="Q36" s="43" t="s">
+      <c r="Q36" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="S36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="T36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="U36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="V36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="W36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="X36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW36" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX36" s="41" t="s">
+      <c r="R36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="S36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="T36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="U36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="V36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="W36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW36" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX36" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5613,68 +5646,68 @@
       <c r="L37" s="5">
         <v>15</v>
       </c>
-      <c r="M37" s="31"/>
-      <c r="N37" s="41" t="s">
+      <c r="M37" s="55"/>
+      <c r="N37" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="O37" s="45" t="s">
+      <c r="O37" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P37" s="44">
+      <c r="P37" s="33">
         <v>8</v>
       </c>
-      <c r="Q37" s="43" t="s">
+      <c r="Q37" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R37" s="44"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="44"/>
-      <c r="V37" s="44"/>
-      <c r="W37" s="44"/>
-      <c r="X37" s="44"/>
-      <c r="Y37" s="44"/>
-      <c r="Z37" s="44"/>
-      <c r="AA37" s="44"/>
-      <c r="AB37" s="44"/>
-      <c r="AC37" s="44"/>
-      <c r="AD37" s="44"/>
-      <c r="AE37" s="44"/>
-      <c r="AF37" s="44"/>
-      <c r="AG37" s="44"/>
-      <c r="AH37" s="44"/>
-      <c r="AI37" s="44"/>
-      <c r="AJ37" s="44"/>
-      <c r="AK37" s="44"/>
-      <c r="AL37" s="44"/>
-      <c r="AM37" s="44"/>
-      <c r="AN37" s="44"/>
-      <c r="AO37" s="44"/>
-      <c r="AP37" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ37" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR37" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS37" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT37" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU37" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV37" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW37" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX37" s="41" t="s">
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="33"/>
+      <c r="AD37" s="33"/>
+      <c r="AE37" s="33"/>
+      <c r="AF37" s="33"/>
+      <c r="AG37" s="33"/>
+      <c r="AH37" s="33"/>
+      <c r="AI37" s="33"/>
+      <c r="AJ37" s="33"/>
+      <c r="AK37" s="33"/>
+      <c r="AL37" s="33"/>
+      <c r="AM37" s="33"/>
+      <c r="AN37" s="33"/>
+      <c r="AO37" s="33"/>
+      <c r="AP37" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ37" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR37" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS37" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT37" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU37" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV37" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW37" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX37" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5715,118 +5748,118 @@
       <c r="L38" s="5">
         <v>16</v>
       </c>
-      <c r="M38" s="30">
+      <c r="M38" s="54">
         <v>6</v>
       </c>
-      <c r="N38" s="41" t="s">
+      <c r="N38" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="O38" s="45" t="s">
+      <c r="O38" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P38" s="44">
+      <c r="P38" s="33">
         <v>32</v>
       </c>
-      <c r="Q38" s="43" t="s">
+      <c r="Q38" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="S38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="T38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="U38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="V38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="W38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="X38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW38" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX38" s="41" t="s">
+      <c r="R38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="S38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="T38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="U38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="V38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="W38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW38" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX38" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5867,68 +5900,68 @@
       <c r="L39" s="5">
         <v>17</v>
       </c>
-      <c r="M39" s="31"/>
-      <c r="N39" s="41" t="s">
+      <c r="M39" s="55"/>
+      <c r="N39" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="O39" s="45" t="s">
+      <c r="O39" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P39" s="44">
+      <c r="P39" s="33">
         <v>8</v>
       </c>
-      <c r="Q39" s="43" t="s">
+      <c r="Q39" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R39" s="44"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="44"/>
-      <c r="V39" s="44"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AE39" s="44"/>
-      <c r="AF39" s="44"/>
-      <c r="AG39" s="44"/>
-      <c r="AH39" s="44"/>
-      <c r="AI39" s="44"/>
-      <c r="AJ39" s="44"/>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
-      <c r="AN39" s="44"/>
-      <c r="AO39" s="44"/>
-      <c r="AP39" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ39" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR39" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS39" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT39" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU39" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV39" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW39" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX39" s="41" t="s">
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="33"/>
+      <c r="AD39" s="33"/>
+      <c r="AE39" s="33"/>
+      <c r="AF39" s="33"/>
+      <c r="AG39" s="33"/>
+      <c r="AH39" s="33"/>
+      <c r="AI39" s="33"/>
+      <c r="AJ39" s="33"/>
+      <c r="AK39" s="33"/>
+      <c r="AL39" s="33"/>
+      <c r="AM39" s="33"/>
+      <c r="AN39" s="33"/>
+      <c r="AO39" s="33"/>
+      <c r="AP39" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ39" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR39" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS39" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT39" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU39" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV39" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW39" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX39" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5969,118 +6002,118 @@
       <c r="L40" s="5">
         <v>18</v>
       </c>
-      <c r="M40" s="30">
+      <c r="M40" s="54">
         <v>7</v>
       </c>
-      <c r="N40" s="41" t="s">
+      <c r="N40" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="O40" s="45" t="s">
+      <c r="O40" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P40" s="44">
+      <c r="P40" s="33">
         <v>32</v>
       </c>
-      <c r="Q40" s="43" t="s">
+      <c r="Q40" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="S40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="T40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="U40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="V40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="W40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="X40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW40" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX40" s="41" t="s">
+      <c r="R40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="S40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="T40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="U40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="V40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="W40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW40" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX40" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6121,68 +6154,68 @@
       <c r="L41" s="5">
         <v>19</v>
       </c>
-      <c r="M41" s="31"/>
-      <c r="N41" s="41" t="s">
+      <c r="M41" s="55"/>
+      <c r="N41" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="O41" s="45" t="s">
+      <c r="O41" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P41" s="44">
+      <c r="P41" s="33">
         <v>8</v>
       </c>
-      <c r="Q41" s="43" t="s">
+      <c r="Q41" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R41" s="44"/>
-      <c r="S41" s="44"/>
-      <c r="T41" s="44"/>
-      <c r="U41" s="44"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="44"/>
-      <c r="X41" s="44"/>
-      <c r="Y41" s="44"/>
-      <c r="Z41" s="44"/>
-      <c r="AA41" s="44"/>
-      <c r="AB41" s="44"/>
-      <c r="AC41" s="44"/>
-      <c r="AD41" s="44"/>
-      <c r="AE41" s="44"/>
-      <c r="AF41" s="44"/>
-      <c r="AG41" s="44"/>
-      <c r="AH41" s="44"/>
-      <c r="AI41" s="44"/>
-      <c r="AJ41" s="44"/>
-      <c r="AK41" s="44"/>
-      <c r="AL41" s="44"/>
-      <c r="AM41" s="44"/>
-      <c r="AN41" s="44"/>
-      <c r="AO41" s="44"/>
-      <c r="AP41" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ41" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR41" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS41" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT41" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU41" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV41" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW41" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX41" s="41" t="s">
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="33"/>
+      <c r="AC41" s="33"/>
+      <c r="AD41" s="33"/>
+      <c r="AE41" s="33"/>
+      <c r="AF41" s="33"/>
+      <c r="AG41" s="33"/>
+      <c r="AH41" s="33"/>
+      <c r="AI41" s="33"/>
+      <c r="AJ41" s="33"/>
+      <c r="AK41" s="33"/>
+      <c r="AL41" s="33"/>
+      <c r="AM41" s="33"/>
+      <c r="AN41" s="33"/>
+      <c r="AO41" s="33"/>
+      <c r="AP41" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ41" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR41" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS41" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT41" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU41" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV41" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW41" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX41" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6223,118 +6256,118 @@
       <c r="L42" s="5">
         <v>20</v>
       </c>
-      <c r="M42" s="30">
+      <c r="M42" s="54">
         <v>8</v>
       </c>
-      <c r="N42" s="41" t="s">
+      <c r="N42" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="O42" s="45" t="s">
+      <c r="O42" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P42" s="44">
+      <c r="P42" s="33">
         <v>32</v>
       </c>
-      <c r="Q42" s="43" t="s">
+      <c r="Q42" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="S42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="T42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="U42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="V42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="W42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="X42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW42" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX42" s="41" t="s">
+      <c r="R42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="S42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="T42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="U42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="V42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="W42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX42" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6375,68 +6408,68 @@
       <c r="L43" s="5">
         <v>21</v>
       </c>
-      <c r="M43" s="31"/>
-      <c r="N43" s="41" t="s">
+      <c r="M43" s="55"/>
+      <c r="N43" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="O43" s="45" t="s">
+      <c r="O43" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P43" s="44">
+      <c r="P43" s="33">
         <v>8</v>
       </c>
-      <c r="Q43" s="43" t="s">
+      <c r="Q43" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="44"/>
-      <c r="X43" s="44"/>
-      <c r="Y43" s="44"/>
-      <c r="Z43" s="44"/>
-      <c r="AA43" s="44"/>
-      <c r="AB43" s="44"/>
-      <c r="AC43" s="44"/>
-      <c r="AD43" s="44"/>
-      <c r="AE43" s="44"/>
-      <c r="AF43" s="44"/>
-      <c r="AG43" s="44"/>
-      <c r="AH43" s="44"/>
-      <c r="AI43" s="44"/>
-      <c r="AJ43" s="44"/>
-      <c r="AK43" s="44"/>
-      <c r="AL43" s="44"/>
-      <c r="AM43" s="44"/>
-      <c r="AN43" s="44"/>
-      <c r="AO43" s="44"/>
-      <c r="AP43" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ43" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR43" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS43" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT43" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU43" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV43" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW43" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX43" s="41" t="s">
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="33"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="33"/>
+      <c r="AA43" s="33"/>
+      <c r="AB43" s="33"/>
+      <c r="AC43" s="33"/>
+      <c r="AD43" s="33"/>
+      <c r="AE43" s="33"/>
+      <c r="AF43" s="33"/>
+      <c r="AG43" s="33"/>
+      <c r="AH43" s="33"/>
+      <c r="AI43" s="33"/>
+      <c r="AJ43" s="33"/>
+      <c r="AK43" s="33"/>
+      <c r="AL43" s="33"/>
+      <c r="AM43" s="33"/>
+      <c r="AN43" s="33"/>
+      <c r="AO43" s="33"/>
+      <c r="AP43" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ43" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR43" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS43" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT43" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU43" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV43" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW43" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX43" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6477,118 +6510,118 @@
       <c r="L44" s="5">
         <v>22</v>
       </c>
-      <c r="M44" s="30">
+      <c r="M44" s="54">
         <v>9</v>
       </c>
-      <c r="N44" s="41" t="s">
+      <c r="N44" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="O44" s="45" t="s">
+      <c r="O44" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P44" s="44">
+      <c r="P44" s="33">
         <v>32</v>
       </c>
-      <c r="Q44" s="43" t="s">
+      <c r="Q44" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="S44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="T44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="U44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="V44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="W44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="X44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW44" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX44" s="41" t="s">
+      <c r="R44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="S44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="T44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="U44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="V44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="W44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW44" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX44" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6629,68 +6662,68 @@
       <c r="L45" s="5">
         <v>23</v>
       </c>
-      <c r="M45" s="31"/>
-      <c r="N45" s="41" t="s">
+      <c r="M45" s="55"/>
+      <c r="N45" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="O45" s="45" t="s">
+      <c r="O45" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P45" s="44">
+      <c r="P45" s="33">
         <v>8</v>
       </c>
-      <c r="Q45" s="43" t="s">
+      <c r="Q45" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R45" s="44"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="44"/>
-      <c r="X45" s="44"/>
-      <c r="Y45" s="44"/>
-      <c r="Z45" s="44"/>
-      <c r="AA45" s="44"/>
-      <c r="AB45" s="44"/>
-      <c r="AC45" s="44"/>
-      <c r="AD45" s="44"/>
-      <c r="AE45" s="44"/>
-      <c r="AF45" s="44"/>
-      <c r="AG45" s="44"/>
-      <c r="AH45" s="44"/>
-      <c r="AI45" s="44"/>
-      <c r="AJ45" s="44"/>
-      <c r="AK45" s="44"/>
-      <c r="AL45" s="44"/>
-      <c r="AM45" s="44"/>
-      <c r="AN45" s="44"/>
-      <c r="AO45" s="44"/>
-      <c r="AP45" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ45" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR45" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS45" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT45" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU45" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV45" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW45" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX45" s="41" t="s">
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="33"/>
+      <c r="U45" s="33"/>
+      <c r="V45" s="33"/>
+      <c r="W45" s="33"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="33"/>
+      <c r="Z45" s="33"/>
+      <c r="AA45" s="33"/>
+      <c r="AB45" s="33"/>
+      <c r="AC45" s="33"/>
+      <c r="AD45" s="33"/>
+      <c r="AE45" s="33"/>
+      <c r="AF45" s="33"/>
+      <c r="AG45" s="33"/>
+      <c r="AH45" s="33"/>
+      <c r="AI45" s="33"/>
+      <c r="AJ45" s="33"/>
+      <c r="AK45" s="33"/>
+      <c r="AL45" s="33"/>
+      <c r="AM45" s="33"/>
+      <c r="AN45" s="33"/>
+      <c r="AO45" s="33"/>
+      <c r="AP45" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ45" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR45" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS45" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT45" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU45" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV45" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW45" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX45" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6731,118 +6764,118 @@
       <c r="L46" s="5">
         <v>24</v>
       </c>
-      <c r="M46" s="30">
+      <c r="M46" s="54">
         <v>10</v>
       </c>
-      <c r="N46" s="41" t="s">
+      <c r="N46" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="O46" s="45" t="s">
+      <c r="O46" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P46" s="44">
+      <c r="P46" s="33">
         <v>32</v>
       </c>
-      <c r="Q46" s="43" t="s">
+      <c r="Q46" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="S46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="T46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="U46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="V46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="W46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="X46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW46" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX46" s="41" t="s">
+      <c r="R46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="S46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="T46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="U46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="V46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="W46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW46" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX46" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6883,68 +6916,68 @@
       <c r="L47" s="5">
         <v>25</v>
       </c>
-      <c r="M47" s="31"/>
-      <c r="N47" s="41" t="s">
+      <c r="M47" s="55"/>
+      <c r="N47" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="O47" s="45" t="s">
+      <c r="O47" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P47" s="44">
+      <c r="P47" s="33">
         <v>8</v>
       </c>
-      <c r="Q47" s="43" t="s">
+      <c r="Q47" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R47" s="44"/>
-      <c r="S47" s="44"/>
-      <c r="T47" s="44"/>
-      <c r="U47" s="44"/>
-      <c r="V47" s="44"/>
-      <c r="W47" s="44"/>
-      <c r="X47" s="44"/>
-      <c r="Y47" s="44"/>
-      <c r="Z47" s="44"/>
-      <c r="AA47" s="44"/>
-      <c r="AB47" s="44"/>
-      <c r="AC47" s="44"/>
-      <c r="AD47" s="44"/>
-      <c r="AE47" s="44"/>
-      <c r="AF47" s="44"/>
-      <c r="AG47" s="44"/>
-      <c r="AH47" s="44"/>
-      <c r="AI47" s="44"/>
-      <c r="AJ47" s="44"/>
-      <c r="AK47" s="44"/>
-      <c r="AL47" s="44"/>
-      <c r="AM47" s="44"/>
-      <c r="AN47" s="44"/>
-      <c r="AO47" s="44"/>
-      <c r="AP47" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ47" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR47" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS47" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT47" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU47" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV47" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW47" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX47" s="41" t="s">
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="33"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="33"/>
+      <c r="AA47" s="33"/>
+      <c r="AB47" s="33"/>
+      <c r="AC47" s="33"/>
+      <c r="AD47" s="33"/>
+      <c r="AE47" s="33"/>
+      <c r="AF47" s="33"/>
+      <c r="AG47" s="33"/>
+      <c r="AH47" s="33"/>
+      <c r="AI47" s="33"/>
+      <c r="AJ47" s="33"/>
+      <c r="AK47" s="33"/>
+      <c r="AL47" s="33"/>
+      <c r="AM47" s="33"/>
+      <c r="AN47" s="33"/>
+      <c r="AO47" s="33"/>
+      <c r="AP47" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ47" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR47" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS47" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT47" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU47" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV47" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW47" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX47" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6985,118 +7018,118 @@
       <c r="L48" s="5">
         <v>26</v>
       </c>
-      <c r="M48" s="30">
+      <c r="M48" s="54">
         <v>11</v>
       </c>
-      <c r="N48" s="41" t="s">
+      <c r="N48" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="O48" s="45" t="s">
+      <c r="O48" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P48" s="44">
+      <c r="P48" s="33">
         <v>32</v>
       </c>
-      <c r="Q48" s="43" t="s">
+      <c r="Q48" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="S48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="T48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="U48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="V48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="W48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="X48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW48" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX48" s="41" t="s">
+      <c r="R48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="S48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="T48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="U48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="V48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="W48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW48" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX48" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7137,68 +7170,68 @@
       <c r="L49" s="5">
         <v>27</v>
       </c>
-      <c r="M49" s="31"/>
-      <c r="N49" s="41" t="s">
+      <c r="M49" s="55"/>
+      <c r="N49" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="O49" s="45" t="s">
+      <c r="O49" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P49" s="44">
+      <c r="P49" s="33">
         <v>8</v>
       </c>
-      <c r="Q49" s="43" t="s">
+      <c r="Q49" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R49" s="44"/>
-      <c r="S49" s="44"/>
-      <c r="T49" s="44"/>
-      <c r="U49" s="44"/>
-      <c r="V49" s="44"/>
-      <c r="W49" s="44"/>
-      <c r="X49" s="44"/>
-      <c r="Y49" s="44"/>
-      <c r="Z49" s="44"/>
-      <c r="AA49" s="44"/>
-      <c r="AB49" s="44"/>
-      <c r="AC49" s="44"/>
-      <c r="AD49" s="44"/>
-      <c r="AE49" s="44"/>
-      <c r="AF49" s="44"/>
-      <c r="AG49" s="44"/>
-      <c r="AH49" s="44"/>
-      <c r="AI49" s="44"/>
-      <c r="AJ49" s="44"/>
-      <c r="AK49" s="44"/>
-      <c r="AL49" s="44"/>
-      <c r="AM49" s="44"/>
-      <c r="AN49" s="44"/>
-      <c r="AO49" s="44"/>
-      <c r="AP49" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ49" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR49" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS49" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT49" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU49" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV49" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW49" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX49" s="41" t="s">
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="33"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="33"/>
+      <c r="AC49" s="33"/>
+      <c r="AD49" s="33"/>
+      <c r="AE49" s="33"/>
+      <c r="AF49" s="33"/>
+      <c r="AG49" s="33"/>
+      <c r="AH49" s="33"/>
+      <c r="AI49" s="33"/>
+      <c r="AJ49" s="33"/>
+      <c r="AK49" s="33"/>
+      <c r="AL49" s="33"/>
+      <c r="AM49" s="33"/>
+      <c r="AN49" s="33"/>
+      <c r="AO49" s="33"/>
+      <c r="AP49" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ49" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR49" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS49" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT49" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU49" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV49" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW49" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX49" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7239,118 +7272,118 @@
       <c r="L50" s="5">
         <v>28</v>
       </c>
-      <c r="M50" s="30">
+      <c r="M50" s="54">
         <v>12</v>
       </c>
-      <c r="N50" s="41" t="s">
+      <c r="N50" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="O50" s="45" t="s">
+      <c r="O50" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P50" s="44">
+      <c r="P50" s="33">
         <v>32</v>
       </c>
-      <c r="Q50" s="43" t="s">
+      <c r="Q50" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="S50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="T50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="U50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="V50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="W50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="X50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AM50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AN50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AO50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AP50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW50" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX50" s="41" t="s">
+      <c r="R50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="S50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="T50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="U50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="V50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="W50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="X50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW50" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX50" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7391,68 +7424,68 @@
       <c r="L51" s="5">
         <v>29</v>
       </c>
-      <c r="M51" s="31"/>
-      <c r="N51" s="41" t="s">
+      <c r="M51" s="55"/>
+      <c r="N51" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="O51" s="45" t="s">
+      <c r="O51" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P51" s="44">
+      <c r="P51" s="33">
         <v>8</v>
       </c>
-      <c r="Q51" s="43" t="s">
+      <c r="Q51" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R51" s="44"/>
-      <c r="S51" s="44"/>
-      <c r="T51" s="44"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="44"/>
-      <c r="W51" s="44"/>
-      <c r="X51" s="44"/>
-      <c r="Y51" s="44"/>
-      <c r="Z51" s="44"/>
-      <c r="AA51" s="44"/>
-      <c r="AB51" s="44"/>
-      <c r="AC51" s="44"/>
-      <c r="AD51" s="44"/>
-      <c r="AE51" s="44"/>
-      <c r="AF51" s="44"/>
-      <c r="AG51" s="44"/>
-      <c r="AH51" s="44"/>
-      <c r="AI51" s="44"/>
-      <c r="AJ51" s="44"/>
-      <c r="AK51" s="44"/>
-      <c r="AL51" s="44"/>
-      <c r="AM51" s="44"/>
-      <c r="AN51" s="44"/>
-      <c r="AO51" s="44"/>
-      <c r="AP51" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ51" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR51" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS51" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT51" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU51" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV51" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW51" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX51" s="41" t="s">
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
+      <c r="V51" s="33"/>
+      <c r="W51" s="33"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="33"/>
+      <c r="AA51" s="33"/>
+      <c r="AB51" s="33"/>
+      <c r="AC51" s="33"/>
+      <c r="AD51" s="33"/>
+      <c r="AE51" s="33"/>
+      <c r="AF51" s="33"/>
+      <c r="AG51" s="33"/>
+      <c r="AH51" s="33"/>
+      <c r="AI51" s="33"/>
+      <c r="AJ51" s="33"/>
+      <c r="AK51" s="33"/>
+      <c r="AL51" s="33"/>
+      <c r="AM51" s="33"/>
+      <c r="AN51" s="33"/>
+      <c r="AO51" s="33"/>
+      <c r="AP51" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ51" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR51" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS51" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT51" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU51" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV51" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW51" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX51" s="30" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7494,65 +7527,65 @@
         <v>30</v>
       </c>
       <c r="M52" s="26"/>
-      <c r="N52" s="49" t="s">
+      <c r="N52" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="O52" s="46" t="s">
+      <c r="O52" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="P52" s="44">
+      <c r="P52" s="33">
         <v>7</v>
       </c>
-      <c r="Q52" s="43" t="s">
+      <c r="Q52" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="R52" s="46"/>
-      <c r="S52" s="46"/>
-      <c r="T52" s="46"/>
-      <c r="U52" s="46"/>
-      <c r="V52" s="46"/>
-      <c r="W52" s="46"/>
-      <c r="X52" s="46"/>
-      <c r="Y52" s="46"/>
-      <c r="Z52" s="46"/>
-      <c r="AA52" s="46"/>
-      <c r="AB52" s="46"/>
-      <c r="AC52" s="46"/>
-      <c r="AD52" s="46"/>
-      <c r="AE52" s="46"/>
-      <c r="AF52" s="46"/>
-      <c r="AG52" s="46"/>
-      <c r="AH52" s="46"/>
-      <c r="AI52" s="46"/>
-      <c r="AJ52" s="46"/>
-      <c r="AK52" s="46"/>
-      <c r="AL52" s="46"/>
-      <c r="AM52" s="46"/>
-      <c r="AN52" s="46"/>
-      <c r="AO52" s="46"/>
-      <c r="AP52" s="44"/>
-      <c r="AQ52" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR52" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS52" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT52" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="AU52" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="AV52" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW52" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX52" s="46" t="s">
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
+      <c r="AB52" s="35"/>
+      <c r="AC52" s="35"/>
+      <c r="AD52" s="35"/>
+      <c r="AE52" s="35"/>
+      <c r="AF52" s="35"/>
+      <c r="AG52" s="35"/>
+      <c r="AH52" s="35"/>
+      <c r="AI52" s="35"/>
+      <c r="AJ52" s="35"/>
+      <c r="AK52" s="35"/>
+      <c r="AL52" s="35"/>
+      <c r="AM52" s="35"/>
+      <c r="AN52" s="35"/>
+      <c r="AO52" s="35"/>
+      <c r="AP52" s="33"/>
+      <c r="AQ52" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR52" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS52" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT52" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU52" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AV52" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AW52" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX52" s="35" t="s">
         <v>184</v>
       </c>
     </row>
@@ -7670,53 +7703,53 @@
         <v>32</v>
       </c>
       <c r="M54" s="5"/>
-      <c r="N54" s="46" t="s">
+      <c r="N54" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="O54" s="51" t="s">
+      <c r="O54" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="P54" s="44">
+      <c r="P54" s="33">
         <v>1</v>
       </c>
-      <c r="Q54" s="44" t="s">
+      <c r="Q54" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="R54" s="44"/>
-      <c r="S54" s="44"/>
-      <c r="T54" s="44"/>
-      <c r="U54" s="44"/>
-      <c r="V54" s="44"/>
-      <c r="W54" s="44"/>
-      <c r="X54" s="44"/>
-      <c r="Y54" s="44"/>
-      <c r="Z54" s="44"/>
-      <c r="AA54" s="44"/>
-      <c r="AB54" s="44"/>
-      <c r="AC54" s="44"/>
-      <c r="AD54" s="44"/>
-      <c r="AE54" s="44"/>
-      <c r="AF54" s="44"/>
-      <c r="AG54" s="44"/>
-      <c r="AH54" s="44"/>
-      <c r="AI54" s="44"/>
-      <c r="AJ54" s="44"/>
-      <c r="AK54" s="44"/>
-      <c r="AL54" s="44"/>
-      <c r="AM54" s="44"/>
-      <c r="AN54" s="44"/>
-      <c r="AO54" s="44"/>
-      <c r="AP54" s="44"/>
-      <c r="AQ54" s="44"/>
-      <c r="AR54" s="44"/>
-      <c r="AS54" s="44"/>
-      <c r="AT54" s="44"/>
-      <c r="AU54" s="44"/>
-      <c r="AV54" s="44"/>
-      <c r="AW54" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="AX54" s="46" t="s">
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33"/>
+      <c r="V54" s="33"/>
+      <c r="W54" s="33"/>
+      <c r="X54" s="33"/>
+      <c r="Y54" s="33"/>
+      <c r="Z54" s="33"/>
+      <c r="AA54" s="33"/>
+      <c r="AB54" s="33"/>
+      <c r="AC54" s="33"/>
+      <c r="AD54" s="33"/>
+      <c r="AE54" s="33"/>
+      <c r="AF54" s="33"/>
+      <c r="AG54" s="33"/>
+      <c r="AH54" s="33"/>
+      <c r="AI54" s="33"/>
+      <c r="AJ54" s="33"/>
+      <c r="AK54" s="33"/>
+      <c r="AL54" s="33"/>
+      <c r="AM54" s="33"/>
+      <c r="AN54" s="33"/>
+      <c r="AO54" s="33"/>
+      <c r="AP54" s="33"/>
+      <c r="AQ54" s="33"/>
+      <c r="AR54" s="33"/>
+      <c r="AS54" s="33"/>
+      <c r="AT54" s="33"/>
+      <c r="AU54" s="33"/>
+      <c r="AV54" s="33"/>
+      <c r="AW54" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX54" s="35" t="s">
         <v>183</v>
       </c>
     </row>
@@ -7835,8 +7868,10 @@
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="9"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="8"/>
+      <c r="O56" s="63" t="s">
+        <v>192</v>
+      </c>
+      <c r="P56" s="64"/>
       <c r="Q56" s="8"/>
       <c r="R56" s="8"/>
       <c r="S56" s="8"/>
@@ -8015,36 +8050,36 @@
       <c r="L59" s="5"/>
       <c r="M59" s="8"/>
       <c r="N59" s="9"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="53"/>
-      <c r="Q59" s="53"/>
-      <c r="R59" s="53"/>
-      <c r="S59" s="53"/>
-      <c r="T59" s="53"/>
-      <c r="U59" s="53"/>
-      <c r="V59" s="53"/>
-      <c r="W59" s="53"/>
-      <c r="X59" s="53"/>
-      <c r="Y59" s="53"/>
-      <c r="Z59" s="53"/>
-      <c r="AA59" s="53"/>
-      <c r="AB59" s="53"/>
-      <c r="AC59" s="53"/>
-      <c r="AD59" s="53"/>
-      <c r="AE59" s="53"/>
-      <c r="AF59" s="53"/>
-      <c r="AG59" s="53"/>
-      <c r="AH59" s="53"/>
-      <c r="AI59" s="53"/>
-      <c r="AJ59" s="53"/>
-      <c r="AK59" s="53"/>
-      <c r="AL59" s="53"/>
-      <c r="AM59" s="53"/>
-      <c r="AN59" s="53"/>
-      <c r="AO59" s="53"/>
-      <c r="AP59" s="53"/>
-      <c r="AQ59" s="53"/>
-      <c r="AR59" s="53"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="40"/>
+      <c r="S59" s="40"/>
+      <c r="T59" s="40"/>
+      <c r="U59" s="40"/>
+      <c r="V59" s="40"/>
+      <c r="W59" s="40"/>
+      <c r="X59" s="40"/>
+      <c r="Y59" s="40"/>
+      <c r="Z59" s="40"/>
+      <c r="AA59" s="40"/>
+      <c r="AB59" s="40"/>
+      <c r="AC59" s="40"/>
+      <c r="AD59" s="40"/>
+      <c r="AE59" s="40"/>
+      <c r="AF59" s="40"/>
+      <c r="AG59" s="40"/>
+      <c r="AH59" s="40"/>
+      <c r="AI59" s="40"/>
+      <c r="AJ59" s="40"/>
+      <c r="AK59" s="40"/>
+      <c r="AL59" s="40"/>
+      <c r="AM59" s="40"/>
+      <c r="AN59" s="40"/>
+      <c r="AO59" s="40"/>
+      <c r="AP59" s="40"/>
+      <c r="AQ59" s="40"/>
+      <c r="AR59" s="40"/>
       <c r="AS59" s="8"/>
       <c r="AT59" s="8"/>
       <c r="AU59" s="8"/>
@@ -8067,38 +8102,38 @@
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
       <c r="N60" s="9"/>
-      <c r="O60" s="54"/>
-      <c r="P60" s="58" t="s">
+      <c r="O60" s="41"/>
+      <c r="P60" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="Q60" s="53"/>
-      <c r="R60" s="53"/>
-      <c r="S60" s="53"/>
-      <c r="T60" s="53"/>
-      <c r="U60" s="53"/>
-      <c r="V60" s="53"/>
-      <c r="W60" s="53"/>
-      <c r="X60" s="53"/>
-      <c r="Y60" s="53"/>
-      <c r="Z60" s="53"/>
-      <c r="AA60" s="53"/>
-      <c r="AB60" s="53"/>
-      <c r="AC60" s="53"/>
-      <c r="AD60" s="53"/>
-      <c r="AE60" s="53"/>
-      <c r="AF60" s="53"/>
-      <c r="AG60" s="53"/>
-      <c r="AH60" s="53"/>
-      <c r="AI60" s="53"/>
-      <c r="AJ60" s="53"/>
-      <c r="AK60" s="53"/>
-      <c r="AL60" s="53"/>
-      <c r="AM60" s="53"/>
-      <c r="AN60" s="53"/>
-      <c r="AO60" s="53"/>
-      <c r="AP60" s="53"/>
-      <c r="AQ60" s="53"/>
-      <c r="AR60" s="53"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="40"/>
+      <c r="Y60" s="40"/>
+      <c r="Z60" s="40"/>
+      <c r="AA60" s="40"/>
+      <c r="AB60" s="40"/>
+      <c r="AC60" s="40"/>
+      <c r="AD60" s="40"/>
+      <c r="AE60" s="40"/>
+      <c r="AF60" s="40"/>
+      <c r="AG60" s="40"/>
+      <c r="AH60" s="40"/>
+      <c r="AI60" s="40"/>
+      <c r="AJ60" s="40"/>
+      <c r="AK60" s="40"/>
+      <c r="AL60" s="40"/>
+      <c r="AM60" s="40"/>
+      <c r="AN60" s="40"/>
+      <c r="AO60" s="40"/>
+      <c r="AP60" s="40"/>
+      <c r="AQ60" s="40"/>
+      <c r="AR60" s="40"/>
       <c r="AS60" s="8"/>
       <c r="AT60" s="8"/>
       <c r="AU60" s="8"/>
@@ -8121,38 +8156,38 @@
       <c r="L61" s="5"/>
       <c r="M61" s="8"/>
       <c r="N61" s="9"/>
-      <c r="O61" s="52"/>
-      <c r="P61" s="56" t="s">
+      <c r="O61" s="39"/>
+      <c r="P61" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="Q61" s="57"/>
-      <c r="R61" s="57"/>
-      <c r="S61" s="57"/>
-      <c r="T61" s="57"/>
-      <c r="U61" s="57"/>
-      <c r="V61" s="57"/>
-      <c r="W61" s="57"/>
-      <c r="X61" s="57"/>
-      <c r="Y61" s="57"/>
-      <c r="Z61" s="57"/>
-      <c r="AA61" s="57"/>
-      <c r="AB61" s="57"/>
-      <c r="AC61" s="57"/>
-      <c r="AD61" s="57"/>
-      <c r="AE61" s="57"/>
-      <c r="AF61" s="57"/>
-      <c r="AG61" s="57"/>
-      <c r="AH61" s="57"/>
-      <c r="AI61" s="57"/>
-      <c r="AJ61" s="53"/>
-      <c r="AK61" s="53"/>
-      <c r="AL61" s="53"/>
-      <c r="AM61" s="53"/>
-      <c r="AN61" s="53"/>
-      <c r="AO61" s="53"/>
-      <c r="AP61" s="53"/>
-      <c r="AQ61" s="55"/>
-      <c r="AR61" s="53"/>
+      <c r="Q61" s="44"/>
+      <c r="R61" s="44"/>
+      <c r="S61" s="44"/>
+      <c r="T61" s="44"/>
+      <c r="U61" s="44"/>
+      <c r="V61" s="44"/>
+      <c r="W61" s="44"/>
+      <c r="X61" s="44"/>
+      <c r="Y61" s="44"/>
+      <c r="Z61" s="44"/>
+      <c r="AA61" s="44"/>
+      <c r="AB61" s="44"/>
+      <c r="AC61" s="44"/>
+      <c r="AD61" s="44"/>
+      <c r="AE61" s="44"/>
+      <c r="AF61" s="44"/>
+      <c r="AG61" s="44"/>
+      <c r="AH61" s="44"/>
+      <c r="AI61" s="44"/>
+      <c r="AJ61" s="40"/>
+      <c r="AK61" s="40"/>
+      <c r="AL61" s="40"/>
+      <c r="AM61" s="40"/>
+      <c r="AN61" s="40"/>
+      <c r="AO61" s="40"/>
+      <c r="AP61" s="40"/>
+      <c r="AQ61" s="42"/>
+      <c r="AR61" s="40"/>
       <c r="AS61" s="8"/>
       <c r="AT61" s="8"/>
       <c r="AU61" s="8"/>
@@ -8175,38 +8210,38 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="9"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52" t="s">
+      <c r="O62" s="39"/>
+      <c r="P62" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="Q62" s="53"/>
-      <c r="R62" s="53"/>
-      <c r="S62" s="53"/>
-      <c r="T62" s="53"/>
-      <c r="U62" s="53"/>
-      <c r="V62" s="53"/>
-      <c r="W62" s="53"/>
-      <c r="X62" s="53"/>
-      <c r="Y62" s="53"/>
-      <c r="Z62" s="53"/>
-      <c r="AA62" s="53"/>
-      <c r="AB62" s="53"/>
-      <c r="AC62" s="53"/>
-      <c r="AD62" s="53"/>
-      <c r="AE62" s="53"/>
-      <c r="AF62" s="53"/>
-      <c r="AG62" s="53"/>
-      <c r="AH62" s="53"/>
-      <c r="AI62" s="53"/>
-      <c r="AJ62" s="53"/>
-      <c r="AK62" s="53"/>
-      <c r="AL62" s="53"/>
-      <c r="AM62" s="53"/>
-      <c r="AN62" s="53"/>
-      <c r="AO62" s="53"/>
-      <c r="AP62" s="53"/>
-      <c r="AQ62" s="53"/>
-      <c r="AR62" s="53"/>
+      <c r="Q62" s="40"/>
+      <c r="R62" s="40"/>
+      <c r="S62" s="40"/>
+      <c r="T62" s="40"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="40"/>
+      <c r="X62" s="40"/>
+      <c r="Y62" s="40"/>
+      <c r="Z62" s="40"/>
+      <c r="AA62" s="40"/>
+      <c r="AB62" s="40"/>
+      <c r="AC62" s="40"/>
+      <c r="AD62" s="40"/>
+      <c r="AE62" s="40"/>
+      <c r="AF62" s="40"/>
+      <c r="AG62" s="40"/>
+      <c r="AH62" s="40"/>
+      <c r="AI62" s="40"/>
+      <c r="AJ62" s="40"/>
+      <c r="AK62" s="40"/>
+      <c r="AL62" s="40"/>
+      <c r="AM62" s="40"/>
+      <c r="AN62" s="40"/>
+      <c r="AO62" s="40"/>
+      <c r="AP62" s="40"/>
+      <c r="AQ62" s="40"/>
+      <c r="AR62" s="40"/>
       <c r="AS62" s="8"/>
       <c r="AT62" s="8"/>
       <c r="AU62" s="8"/>
@@ -8229,36 +8264,36 @@
       <c r="L63" s="5"/>
       <c r="M63" s="8"/>
       <c r="N63" s="9"/>
-      <c r="O63" s="52"/>
-      <c r="P63" s="53"/>
-      <c r="Q63" s="53"/>
-      <c r="R63" s="53"/>
-      <c r="S63" s="53"/>
-      <c r="T63" s="53"/>
-      <c r="U63" s="53"/>
-      <c r="V63" s="53"/>
-      <c r="W63" s="53"/>
-      <c r="X63" s="53"/>
-      <c r="Y63" s="53"/>
-      <c r="Z63" s="53"/>
-      <c r="AA63" s="53"/>
-      <c r="AB63" s="53"/>
-      <c r="AC63" s="53"/>
-      <c r="AD63" s="53"/>
-      <c r="AE63" s="53"/>
-      <c r="AF63" s="53"/>
-      <c r="AG63" s="53"/>
-      <c r="AH63" s="53"/>
-      <c r="AI63" s="53"/>
-      <c r="AJ63" s="53"/>
-      <c r="AK63" s="53"/>
-      <c r="AL63" s="53"/>
-      <c r="AM63" s="53"/>
-      <c r="AN63" s="53"/>
-      <c r="AO63" s="53"/>
-      <c r="AP63" s="53"/>
-      <c r="AQ63" s="53"/>
-      <c r="AR63" s="53"/>
+      <c r="O63" s="39"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="40"/>
+      <c r="U63" s="40"/>
+      <c r="V63" s="40"/>
+      <c r="W63" s="40"/>
+      <c r="X63" s="40"/>
+      <c r="Y63" s="40"/>
+      <c r="Z63" s="40"/>
+      <c r="AA63" s="40"/>
+      <c r="AB63" s="40"/>
+      <c r="AC63" s="40"/>
+      <c r="AD63" s="40"/>
+      <c r="AE63" s="40"/>
+      <c r="AF63" s="40"/>
+      <c r="AG63" s="40"/>
+      <c r="AH63" s="40"/>
+      <c r="AI63" s="40"/>
+      <c r="AJ63" s="40"/>
+      <c r="AK63" s="40"/>
+      <c r="AL63" s="40"/>
+      <c r="AM63" s="40"/>
+      <c r="AN63" s="40"/>
+      <c r="AO63" s="40"/>
+      <c r="AP63" s="40"/>
+      <c r="AQ63" s="40"/>
+      <c r="AR63" s="40"/>
       <c r="AS63" s="8"/>
       <c r="AT63" s="8"/>
       <c r="AU63" s="8"/>
@@ -12856,44 +12891,20 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M25:M27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="D3:D16"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="C3:C16"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="E3:E16"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="R1:AW1"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="M42:M43"/>
     <mergeCell ref="L3:L16"/>
     <mergeCell ref="L17:L21"/>
     <mergeCell ref="M3:M24"/>
@@ -12910,20 +12921,44 @@
     <mergeCell ref="F3:F16"/>
     <mergeCell ref="I17:I21"/>
     <mergeCell ref="F23:F24"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="R1:AW1"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="D3:D16"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="C3:C16"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="E3:E16"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M25:M27"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="58" orientation="landscape" r:id="rId1"/>
@@ -13263,7 +13298,7 @@
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="24"/>
       <c r="B14" s="20"/>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="56" t="s">
         <v>128</v>
       </c>
       <c r="D14" s="22" t="s">
@@ -13287,7 +13322,7 @@
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="24"/>
       <c r="B15" s="20"/>
-      <c r="C15" s="39"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="22" t="s">
         <v>130</v>
       </c>
@@ -13309,7 +13344,7 @@
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="24"/>
       <c r="B16" s="20"/>
-      <c r="C16" s="39"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="22" t="s">
         <v>10</v>
       </c>
@@ -13435,7 +13470,7 @@
       <c r="H21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="40" t="s">
+      <c r="I21" s="58" t="s">
         <v>149</v>
       </c>
       <c r="J21" s="21" t="s">
@@ -13459,7 +13494,7 @@
       <c r="H22" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="39"/>
+      <c r="I22" s="57"/>
       <c r="J22" s="21" t="s">
         <v>153</v>
       </c>
@@ -13485,7 +13520,7 @@
       <c r="H23" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="40" t="s">
+      <c r="I23" s="58" t="s">
         <v>156</v>
       </c>
       <c r="J23" s="21" t="s">
@@ -13511,7 +13546,7 @@
       <c r="H24" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="39"/>
+      <c r="I24" s="57"/>
       <c r="J24" s="21" t="s">
         <v>153</v>
       </c>
